--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl1-Xcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl1-Xcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.651495</v>
+        <v>45.8803895</v>
       </c>
       <c r="H2">
-        <v>57.30298999999999</v>
+        <v>91.760779</v>
       </c>
       <c r="I2">
-        <v>0.03951472183891054</v>
+        <v>0.04823508666161738</v>
       </c>
       <c r="J2">
-        <v>0.02741774509604874</v>
+        <v>0.03353989414786691</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.00723</v>
+        <v>0.016002</v>
       </c>
       <c r="N2">
-        <v>0.02169</v>
+        <v>0.032004</v>
       </c>
       <c r="O2">
-        <v>0.005197506442967012</v>
+        <v>0.01144721443008105</v>
       </c>
       <c r="P2">
-        <v>0.005197506442967011</v>
+        <v>0.007660707540688833</v>
       </c>
       <c r="Q2">
-        <v>0.20715030885</v>
+        <v>0.734177992779</v>
       </c>
       <c r="R2">
-        <v>1.2429018531</v>
+        <v>2.936711971116</v>
       </c>
       <c r="S2">
-        <v>0.0002053780213497868</v>
+        <v>0.0005521573800690763</v>
       </c>
       <c r="T2">
-        <v>0.0001425039067883405</v>
+        <v>0.0002569393200124694</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.651495</v>
+        <v>45.8803895</v>
       </c>
       <c r="H3">
-        <v>57.30298999999999</v>
+        <v>91.760779</v>
       </c>
       <c r="I3">
-        <v>0.03951472183891054</v>
+        <v>0.04823508666161738</v>
       </c>
       <c r="J3">
-        <v>0.02741774509604874</v>
+        <v>0.03353989414786691</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.2861633333333333</v>
+        <v>0.00723</v>
       </c>
       <c r="N3">
-        <v>0.85849</v>
+        <v>0.02169</v>
       </c>
       <c r="O3">
-        <v>0.2057172570872637</v>
+        <v>0.005172063512653793</v>
       </c>
       <c r="P3">
-        <v>0.2057172570872637</v>
+        <v>0.005191874345629947</v>
       </c>
       <c r="Q3">
-        <v>8.199007314183332</v>
+        <v>0.331715216085</v>
       </c>
       <c r="R3">
-        <v>49.19404388509999</v>
+        <v>1.99029129651</v>
       </c>
       <c r="S3">
-        <v>0.008128860191266874</v>
+        <v>0.0002494749317522449</v>
       </c>
       <c r="T3">
-        <v>0.005640303316676921</v>
+        <v>0.0001741349159814542</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.651495</v>
+        <v>45.8803895</v>
       </c>
       <c r="H4">
-        <v>57.30298999999999</v>
+        <v>91.760779</v>
       </c>
       <c r="I4">
-        <v>0.03951472183891054</v>
+        <v>0.04823508666161738</v>
       </c>
       <c r="J4">
-        <v>0.02741774509604874</v>
+        <v>0.03353989414786691</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.046604</v>
+        <v>0.5439379999999999</v>
       </c>
       <c r="N4">
-        <v>0.139812</v>
+        <v>1.631814</v>
       </c>
       <c r="O4">
-        <v>0.03350270958064103</v>
+        <v>0.3891122936301353</v>
       </c>
       <c r="P4">
-        <v>0.03350270958064102</v>
+        <v>0.3906027313711288</v>
       </c>
       <c r="Q4">
-        <v>1.33527427298</v>
+        <v>24.956087303851</v>
       </c>
       <c r="R4">
-        <v>8.011645637879999</v>
+        <v>149.736523823106</v>
       </c>
       <c r="S4">
-        <v>0.001323850249928833</v>
+        <v>0.01876886520435028</v>
       </c>
       <c r="T4">
-        <v>0.0009185687513089653</v>
+        <v>0.01310077426405536</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.651495</v>
+        <v>45.8803895</v>
       </c>
       <c r="H5">
-        <v>57.30298999999999</v>
+        <v>91.760779</v>
       </c>
       <c r="I5">
-        <v>0.03951472183891054</v>
+        <v>0.04823508666161738</v>
       </c>
       <c r="J5">
-        <v>0.02741774509604874</v>
+        <v>0.03353989414786691</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.051054333333333</v>
+        <v>0.6534303333333332</v>
       </c>
       <c r="N5">
-        <v>3.153163</v>
+        <v>1.960291</v>
       </c>
       <c r="O5">
-        <v>0.7555825268891283</v>
+        <v>0.4674388914376954</v>
       </c>
       <c r="P5">
-        <v>0.7555825268891282</v>
+        <v>0.4692293477579194</v>
       </c>
       <c r="Q5">
-        <v>30.11427797622833</v>
+        <v>29.97963820444816</v>
       </c>
       <c r="R5">
-        <v>180.68566785737</v>
+        <v>179.877829226689</v>
       </c>
       <c r="S5">
-        <v>0.02985663337636505</v>
+        <v>0.02254695543750759</v>
       </c>
       <c r="T5">
-        <v>0.02071636912127451</v>
+        <v>0.01573790265487325</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>567.8317466666666</v>
+        <v>45.8803895</v>
       </c>
       <c r="H6">
-        <v>1703.49524</v>
+        <v>91.760779</v>
       </c>
       <c r="I6">
-        <v>0.7831254013389546</v>
+        <v>0.04823508666161738</v>
       </c>
       <c r="J6">
-        <v>0.8150708761035396</v>
+        <v>0.03353989414786691</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.00723</v>
+        <v>0.1772943333333333</v>
       </c>
       <c r="N6">
-        <v>0.02169</v>
+        <v>0.531883</v>
       </c>
       <c r="O6">
-        <v>0.005197506442967012</v>
+        <v>0.1268295369894346</v>
       </c>
       <c r="P6">
-        <v>0.005197506442967011</v>
+        <v>0.1273153389846331</v>
       </c>
       <c r="Q6">
-        <v>4.1054235284</v>
+        <v>8.134333069476167</v>
       </c>
       <c r="R6">
-        <v>36.9488117556</v>
+        <v>48.805998416857</v>
       </c>
       <c r="S6">
-        <v>0.004070299319110343</v>
+        <v>0.006117633707938185</v>
       </c>
       <c r="T6">
-        <v>0.004236336130022914</v>
+        <v>0.004270142992944389</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>1703.49524</v>
       </c>
       <c r="I7">
-        <v>0.7831254013389546</v>
+        <v>0.5969743022710003</v>
       </c>
       <c r="J7">
-        <v>0.8150708761035396</v>
+        <v>0.6226521903328125</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.2861633333333333</v>
+        <v>0.016002</v>
       </c>
       <c r="N7">
-        <v>0.85849</v>
+        <v>0.032004</v>
       </c>
       <c r="O7">
-        <v>0.2057172570872637</v>
+        <v>0.01144721443008105</v>
       </c>
       <c r="P7">
-        <v>0.2057172570872637</v>
+        <v>0.007660707540688833</v>
       </c>
       <c r="Q7">
-        <v>162.4926253986222</v>
+        <v>9.086443610159998</v>
       </c>
       <c r="R7">
-        <v>1462.4336285876</v>
+        <v>54.51866166095999</v>
       </c>
       <c r="S7">
-        <v>0.1611024095188123</v>
+        <v>0.006833692847344161</v>
       </c>
       <c r="T7">
-        <v>0.1676741449637331</v>
+        <v>0.004769956329708995</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>1703.49524</v>
       </c>
       <c r="I8">
-        <v>0.7831254013389546</v>
+        <v>0.5969743022710003</v>
       </c>
       <c r="J8">
-        <v>0.8150708761035396</v>
+        <v>0.6226521903328125</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.046604</v>
+        <v>0.00723</v>
       </c>
       <c r="N8">
-        <v>0.139812</v>
+        <v>0.02169</v>
       </c>
       <c r="O8">
-        <v>0.03350270958064103</v>
+        <v>0.005172063512653793</v>
       </c>
       <c r="P8">
-        <v>0.03350270958064102</v>
+        <v>0.005191874345629947</v>
       </c>
       <c r="Q8">
-        <v>26.46323072165333</v>
+        <v>4.1054235284</v>
       </c>
       <c r="R8">
-        <v>238.16907649488</v>
+        <v>36.9488117556</v>
       </c>
       <c r="S8">
-        <v>0.02623682288628194</v>
+        <v>0.003087589006767797</v>
       </c>
       <c r="T8">
-        <v>0.02730708284973552</v>
+        <v>0.003232731933239224</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>1703.49524</v>
       </c>
       <c r="I9">
-        <v>0.7831254013389546</v>
+        <v>0.5969743022710003</v>
       </c>
       <c r="J9">
-        <v>0.8150708761035396</v>
+        <v>0.6226521903328125</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.051054333333333</v>
+        <v>0.5439379999999999</v>
       </c>
       <c r="N9">
-        <v>3.153163</v>
+        <v>1.631814</v>
       </c>
       <c r="O9">
-        <v>0.7555825268891283</v>
+        <v>0.3891122936301353</v>
       </c>
       <c r="P9">
-        <v>0.7555825268891282</v>
+        <v>0.3906027313711288</v>
       </c>
       <c r="Q9">
-        <v>596.8220179382355</v>
+        <v>308.8652646183733</v>
       </c>
       <c r="R9">
-        <v>5371.39816144412</v>
+        <v>2779.78738156536</v>
       </c>
       <c r="S9">
-        <v>0.5917158696147501</v>
+        <v>0.2322900399949186</v>
       </c>
       <c r="T9">
-        <v>0.6158533121600479</v>
+        <v>0.2432096462382125</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.62632533333333</v>
+        <v>567.8317466666666</v>
       </c>
       <c r="H10">
-        <v>121.878976</v>
+        <v>1703.49524</v>
       </c>
       <c r="I10">
-        <v>0.05602981432151277</v>
+        <v>0.5969743022710003</v>
       </c>
       <c r="J10">
-        <v>0.05831539849029591</v>
+        <v>0.6226521903328125</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.00723</v>
+        <v>0.6534303333333332</v>
       </c>
       <c r="N10">
-        <v>0.02169</v>
+        <v>1.960291</v>
       </c>
       <c r="O10">
-        <v>0.005197506442967012</v>
+        <v>0.4674388914376954</v>
       </c>
       <c r="P10">
-        <v>0.005197506442967011</v>
+        <v>0.4692293477579194</v>
       </c>
       <c r="Q10">
-        <v>0.29372833216</v>
+        <v>371.0384875016488</v>
       </c>
       <c r="R10">
-        <v>2.64355498944</v>
+        <v>3339.34638751484</v>
       </c>
       <c r="S10">
-        <v>0.000291215320934308</v>
+        <v>0.2790490060703481</v>
       </c>
       <c r="T10">
-        <v>0.0003030946593775017</v>
+        <v>0.2921666811499055</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>40.62632533333333</v>
+        <v>567.8317466666666</v>
       </c>
       <c r="H11">
-        <v>121.878976</v>
+        <v>1703.49524</v>
       </c>
       <c r="I11">
-        <v>0.05602981432151277</v>
+        <v>0.5969743022710003</v>
       </c>
       <c r="J11">
-        <v>0.05831539849029591</v>
+        <v>0.6226521903328125</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2861633333333333</v>
+        <v>0.1772943333333333</v>
       </c>
       <c r="N11">
-        <v>0.85849</v>
+        <v>0.531883</v>
       </c>
       <c r="O11">
-        <v>0.2057172570872637</v>
+        <v>0.1268295369894346</v>
       </c>
       <c r="P11">
-        <v>0.2057172570872637</v>
+        <v>0.1273153389846331</v>
       </c>
       <c r="Q11">
-        <v>11.62576467847111</v>
+        <v>100.6733509707689</v>
       </c>
       <c r="R11">
-        <v>104.63188210624</v>
+        <v>906.06015873692</v>
       </c>
       <c r="S11">
-        <v>0.01152629971733029</v>
+        <v>0.07571397435162176</v>
       </c>
       <c r="T11">
-        <v>0.01199648382337443</v>
+        <v>0.07927317468174633</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>40.62632533333333</v>
+        <v>58.29942466666666</v>
       </c>
       <c r="H12">
-        <v>121.878976</v>
+        <v>174.898274</v>
       </c>
       <c r="I12">
-        <v>0.05602981432151277</v>
+        <v>0.06129149799652638</v>
       </c>
       <c r="J12">
-        <v>0.05831539849029591</v>
+        <v>0.0639278530602342</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.046604</v>
+        <v>0.016002</v>
       </c>
       <c r="N12">
-        <v>0.139812</v>
+        <v>0.032004</v>
       </c>
       <c r="O12">
-        <v>0.03350270958064103</v>
+        <v>0.01144721443008105</v>
       </c>
       <c r="P12">
-        <v>0.03350270958064102</v>
+        <v>0.007660707540688833</v>
       </c>
       <c r="Q12">
-        <v>1.893349265834667</v>
+        <v>0.9329073935159998</v>
       </c>
       <c r="R12">
-        <v>17.040143392512</v>
+        <v>5.597444361095999</v>
       </c>
       <c r="S12">
-        <v>0.001877150597070884</v>
+        <v>0.0007016169203071204</v>
       </c>
       <c r="T12">
-        <v>0.001953723859699736</v>
+        <v>0.0004897325859985839</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>40.62632533333333</v>
+        <v>58.29942466666666</v>
       </c>
       <c r="H13">
-        <v>121.878976</v>
+        <v>174.898274</v>
       </c>
       <c r="I13">
-        <v>0.05602981432151277</v>
+        <v>0.06129149799652638</v>
       </c>
       <c r="J13">
-        <v>0.05831539849029591</v>
+        <v>0.0639278530602342</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>1.051054333333333</v>
+        <v>0.00723</v>
       </c>
       <c r="N13">
-        <v>3.153163</v>
+        <v>0.02169</v>
       </c>
       <c r="O13">
-        <v>0.7555825268891283</v>
+        <v>0.005172063512653793</v>
       </c>
       <c r="P13">
-        <v>0.7555825268891282</v>
+        <v>0.005191874345629947</v>
       </c>
       <c r="Q13">
-        <v>42.70047528900978</v>
+        <v>0.42150484034</v>
       </c>
       <c r="R13">
-        <v>384.304277601088</v>
+        <v>3.79354356306</v>
       </c>
       <c r="S13">
-        <v>0.04233514868617728</v>
+        <v>0.0003170035204237272</v>
       </c>
       <c r="T13">
-        <v>0.04406209614784424</v>
+        <v>0.0003319053802746308</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>56.6042365</v>
+        <v>58.29942466666666</v>
       </c>
       <c r="H14">
-        <v>113.208473</v>
+        <v>174.898274</v>
       </c>
       <c r="I14">
-        <v>0.07806575748321012</v>
+        <v>0.06129149799652638</v>
       </c>
       <c r="J14">
-        <v>0.05416682542092334</v>
+        <v>0.0639278530602342</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.00723</v>
+        <v>0.5439379999999999</v>
       </c>
       <c r="N14">
-        <v>0.02169</v>
+        <v>1.631814</v>
       </c>
       <c r="O14">
-        <v>0.005197506442967012</v>
+        <v>0.3891122936301353</v>
       </c>
       <c r="P14">
-        <v>0.005197506442967011</v>
+        <v>0.3906027313711288</v>
       </c>
       <c r="Q14">
-        <v>0.409248629895</v>
+        <v>31.71127245433733</v>
       </c>
       <c r="R14">
-        <v>2.45549177937</v>
+        <v>285.401452089036</v>
       </c>
       <c r="S14">
-        <v>0.0004057472774940849</v>
+        <v>0.02384927536545522</v>
       </c>
       <c r="T14">
-        <v>0.0002815324241203184</v>
+        <v>0.02497039401601965</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>56.6042365</v>
+        <v>58.29942466666666</v>
       </c>
       <c r="H15">
-        <v>113.208473</v>
+        <v>174.898274</v>
       </c>
       <c r="I15">
-        <v>0.07806575748321012</v>
+        <v>0.06129149799652638</v>
       </c>
       <c r="J15">
-        <v>0.05416682542092334</v>
+        <v>0.0639278530602342</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2861633333333333</v>
+        <v>0.6534303333333332</v>
       </c>
       <c r="N15">
-        <v>0.85849</v>
+        <v>1.960291</v>
       </c>
       <c r="O15">
-        <v>0.2057172570872637</v>
+        <v>0.4674388914376954</v>
       </c>
       <c r="P15">
-        <v>0.2057172570872637</v>
+        <v>0.4692293477579194</v>
       </c>
       <c r="Q15">
-        <v>16.19805699762833</v>
+        <v>38.09461249308154</v>
       </c>
       <c r="R15">
-        <v>97.18834198576999</v>
+        <v>342.851512437734</v>
       </c>
       <c r="S15">
-        <v>0.01605947350188552</v>
+        <v>0.02865002987805202</v>
       </c>
       <c r="T15">
-        <v>0.01114305075071702</v>
+        <v>0.02999682479501781</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>56.6042365</v>
+        <v>58.29942466666666</v>
       </c>
       <c r="H16">
-        <v>113.208473</v>
+        <v>174.898274</v>
       </c>
       <c r="I16">
-        <v>0.07806575748321012</v>
+        <v>0.06129149799652638</v>
       </c>
       <c r="J16">
-        <v>0.05416682542092334</v>
+        <v>0.0639278530602342</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.046604</v>
+        <v>0.1772943333333333</v>
       </c>
       <c r="N16">
-        <v>0.139812</v>
+        <v>0.531883</v>
       </c>
       <c r="O16">
-        <v>0.03350270958064103</v>
+        <v>0.1268295369894346</v>
       </c>
       <c r="P16">
-        <v>0.03350270958064102</v>
+        <v>0.1273153389846331</v>
       </c>
       <c r="Q16">
-        <v>2.637983837846</v>
+        <v>10.33615762999355</v>
       </c>
       <c r="R16">
-        <v>15.827903027076</v>
+        <v>93.025418669942</v>
       </c>
       <c r="S16">
-        <v>0.002615414401152743</v>
+        <v>0.007773572312288301</v>
       </c>
       <c r="T16">
-        <v>0.001814735420982478</v>
+        <v>0.008138996282923533</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>56.6042365</v>
+        <v>71.7986375</v>
       </c>
       <c r="H17">
-        <v>113.208473</v>
+        <v>143.597275</v>
       </c>
       <c r="I17">
-        <v>0.07806575748321012</v>
+        <v>0.07548352443691768</v>
       </c>
       <c r="J17">
-        <v>0.05416682542092334</v>
+        <v>0.05248688443918001</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>1.051054333333333</v>
+        <v>0.016002</v>
       </c>
       <c r="N17">
-        <v>3.153163</v>
+        <v>0.032004</v>
       </c>
       <c r="O17">
-        <v>0.7555825268891283</v>
+        <v>0.01144721443008105</v>
       </c>
       <c r="P17">
-        <v>0.7555825268891282</v>
+        <v>0.007660707540688833</v>
       </c>
       <c r="Q17">
-        <v>59.49412805834983</v>
+        <v>1.148921797275</v>
       </c>
       <c r="R17">
-        <v>356.964768350099</v>
+        <v>4.5956871891</v>
       </c>
       <c r="S17">
-        <v>0.05898512230267778</v>
+        <v>0.0008640760901676594</v>
       </c>
       <c r="T17">
-        <v>0.04092750682510352</v>
+        <v>0.0004020866714104897</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.228297</v>
+        <v>71.7986375</v>
       </c>
       <c r="H18">
-        <v>54.68489099999999</v>
+        <v>143.597275</v>
       </c>
       <c r="I18">
-        <v>0.02513956376629029</v>
+        <v>0.07548352443691768</v>
       </c>
       <c r="J18">
-        <v>0.0261650640227187</v>
+        <v>0.05248688443918001</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1559,27 +1559,27 @@
         <v>0.02169</v>
       </c>
       <c r="O18">
-        <v>0.005197506442967012</v>
+        <v>0.005172063512653793</v>
       </c>
       <c r="P18">
-        <v>0.005197506442967011</v>
+        <v>0.005191874345629947</v>
       </c>
       <c r="Q18">
-        <v>0.13179058731</v>
+        <v>0.519104149125</v>
       </c>
       <c r="R18">
-        <v>1.18611528579</v>
+        <v>3.11462489475</v>
       </c>
       <c r="S18">
-        <v>0.0001306630446486738</v>
+        <v>0.0003904055825466929</v>
       </c>
       <c r="T18">
-        <v>0.0001359930888387248</v>
+        <v>0.0002725053088018223</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,57 +1591,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.228297</v>
+        <v>71.7986375</v>
       </c>
       <c r="H19">
-        <v>54.68489099999999</v>
+        <v>143.597275</v>
       </c>
       <c r="I19">
-        <v>0.02513956376629029</v>
+        <v>0.07548352443691768</v>
       </c>
       <c r="J19">
-        <v>0.0261650640227187</v>
+        <v>0.05248688443918001</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2861633333333333</v>
+        <v>0.5439379999999999</v>
       </c>
       <c r="N19">
-        <v>0.85849</v>
+        <v>1.631814</v>
       </c>
       <c r="O19">
-        <v>0.2057172570872637</v>
+        <v>0.3891122936301353</v>
       </c>
       <c r="P19">
-        <v>0.2057172570872637</v>
+        <v>0.3906027313711288</v>
       </c>
       <c r="Q19">
-        <v>5.216270230509999</v>
+        <v>39.05400728447499</v>
       </c>
       <c r="R19">
-        <v>46.94643207458999</v>
+        <v>234.32404370685</v>
       </c>
       <c r="S19">
-        <v>0.0051716421023716</v>
+        <v>0.0293715673249354</v>
       </c>
       <c r="T19">
-        <v>0.005382605202266337</v>
+        <v>0.02050152042310451</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,57 +1653,57 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.228297</v>
+        <v>71.7986375</v>
       </c>
       <c r="H20">
-        <v>54.68489099999999</v>
+        <v>143.597275</v>
       </c>
       <c r="I20">
-        <v>0.02513956376629029</v>
+        <v>0.07548352443691768</v>
       </c>
       <c r="J20">
-        <v>0.0261650640227187</v>
+        <v>0.05248688443918001</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.046604</v>
+        <v>0.6534303333333332</v>
       </c>
       <c r="N20">
-        <v>0.139812</v>
+        <v>1.960291</v>
       </c>
       <c r="O20">
-        <v>0.03350270958064103</v>
+        <v>0.4674388914376954</v>
       </c>
       <c r="P20">
-        <v>0.03350270958064102</v>
+        <v>0.4692293477579194</v>
       </c>
       <c r="Q20">
-        <v>0.8495115533879999</v>
+        <v>46.91540763450416</v>
       </c>
       <c r="R20">
-        <v>7.645603980491998</v>
+        <v>281.492445807025</v>
       </c>
       <c r="S20">
-        <v>0.0008422435038460298</v>
+        <v>0.03528393498460299</v>
       </c>
       <c r="T20">
-        <v>0.0008766005411120236</v>
+        <v>0.02462838655124172</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.228297</v>
+        <v>71.7986375</v>
       </c>
       <c r="H21">
-        <v>54.68489099999999</v>
+        <v>143.597275</v>
       </c>
       <c r="I21">
-        <v>0.02513956376629029</v>
+        <v>0.07548352443691768</v>
       </c>
       <c r="J21">
-        <v>0.0261650640227187</v>
+        <v>0.05248688443918001</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.051054333333333</v>
+        <v>0.1772943333333333</v>
       </c>
       <c r="N21">
-        <v>3.153163</v>
+        <v>0.531883</v>
       </c>
       <c r="O21">
-        <v>0.7555825268891283</v>
+        <v>0.1268295369894346</v>
       </c>
       <c r="P21">
-        <v>0.7555825268891282</v>
+        <v>0.1273153389846331</v>
       </c>
       <c r="Q21">
-        <v>19.158930551137</v>
+        <v>12.72949156980417</v>
       </c>
       <c r="R21">
-        <v>172.430374960233</v>
+        <v>76.37694941882499</v>
       </c>
       <c r="S21">
-        <v>0.01899501511542399</v>
+        <v>0.009573540454664941</v>
       </c>
       <c r="T21">
-        <v>0.01976986519050162</v>
+        <v>0.006682385484621469</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.141961</v>
+        <v>147.7885923333333</v>
       </c>
       <c r="H22">
-        <v>39.425883</v>
+        <v>443.365777</v>
       </c>
       <c r="I22">
-        <v>0.01812474125112182</v>
+        <v>0.1553734751706233</v>
       </c>
       <c r="J22">
-        <v>0.01886409086647383</v>
+        <v>0.1620566149440249</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M22">
-        <v>0.00723</v>
+        <v>0.016002</v>
       </c>
       <c r="N22">
-        <v>0.02169</v>
+        <v>0.032004</v>
       </c>
       <c r="O22">
-        <v>0.005197506442967012</v>
+        <v>0.01144721443008105</v>
       </c>
       <c r="P22">
-        <v>0.005197506442967011</v>
+        <v>0.007660707540688833</v>
       </c>
       <c r="Q22">
-        <v>0.09501637803</v>
+        <v>2.364913054518</v>
       </c>
       <c r="R22">
-        <v>0.85514740227</v>
+        <v>14.189478327108</v>
       </c>
       <c r="S22">
-        <v>9.420345942981566E-05</v>
+        <v>0.001778593487024998</v>
       </c>
       <c r="T22">
-        <v>9.804623381921288E-05</v>
+        <v>0.001241468332120198</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,51 +1845,51 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.141961</v>
+        <v>147.7885923333333</v>
       </c>
       <c r="H23">
-        <v>39.425883</v>
+        <v>443.365777</v>
       </c>
       <c r="I23">
-        <v>0.01812474125112182</v>
+        <v>0.1553734751706233</v>
       </c>
       <c r="J23">
-        <v>0.01886409086647383</v>
+        <v>0.1620566149440249</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>0.2861633333333333</v>
+        <v>0.00723</v>
       </c>
       <c r="N23">
-        <v>0.85849</v>
+        <v>0.02169</v>
       </c>
       <c r="O23">
-        <v>0.2057172570872637</v>
+        <v>0.005172063512653793</v>
       </c>
       <c r="P23">
-        <v>0.2057172570872637</v>
+        <v>0.005191874345629947</v>
       </c>
       <c r="Q23">
-        <v>3.760747366296667</v>
+        <v>1.06851152257</v>
       </c>
       <c r="R23">
-        <v>33.84672629667</v>
+        <v>9.61660370313</v>
       </c>
       <c r="S23">
-        <v>0.003728572055597162</v>
+        <v>0.0008036014817642007</v>
       </c>
       <c r="T23">
-        <v>0.0038806690304959</v>
+        <v>0.0008413775816675134</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,108 +1907,480 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.141961</v>
+        <v>147.7885923333333</v>
       </c>
       <c r="H24">
-        <v>39.425883</v>
+        <v>443.365777</v>
       </c>
       <c r="I24">
-        <v>0.01812474125112182</v>
+        <v>0.1553734751706233</v>
       </c>
       <c r="J24">
-        <v>0.01886409086647383</v>
+        <v>0.1620566149440249</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.046604</v>
+        <v>0.5439379999999999</v>
       </c>
       <c r="N24">
-        <v>0.139812</v>
+        <v>1.631814</v>
       </c>
       <c r="O24">
-        <v>0.03350270958064103</v>
+        <v>0.3891122936301353</v>
       </c>
       <c r="P24">
-        <v>0.03350270958064102</v>
+        <v>0.3906027313711288</v>
       </c>
       <c r="Q24">
-        <v>0.612467950444</v>
+        <v>80.38783133660866</v>
       </c>
       <c r="R24">
-        <v>5.512211553996</v>
+        <v>723.4904820294779</v>
       </c>
       <c r="S24">
-        <v>0.0006072279423605987</v>
+        <v>0.06045772929292609</v>
       </c>
       <c r="T24">
-        <v>0.0006319981578022956</v>
+        <v>0.06329975643389542</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>147.7885923333333</v>
+      </c>
+      <c r="H25">
+        <v>443.365777</v>
+      </c>
+      <c r="I25">
+        <v>0.1553734751706233</v>
+      </c>
+      <c r="J25">
+        <v>0.1620566149440249</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.6534303333333332</v>
+      </c>
+      <c r="N25">
+        <v>1.960291</v>
+      </c>
+      <c r="O25">
+        <v>0.4674388914376954</v>
+      </c>
+      <c r="P25">
+        <v>0.4692293477579194</v>
+      </c>
+      <c r="Q25">
+        <v>96.56954915123409</v>
+      </c>
+      <c r="R25">
+        <v>869.1259423611068</v>
+      </c>
+      <c r="S25">
+        <v>0.07262760499257843</v>
+      </c>
+      <c r="T25">
+        <v>0.0760417197300411</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>147.7885923333333</v>
+      </c>
+      <c r="H26">
+        <v>443.365777</v>
+      </c>
+      <c r="I26">
+        <v>0.1553734751706233</v>
+      </c>
+      <c r="J26">
+        <v>0.1620566149440249</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1772943333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.531883</v>
+      </c>
+      <c r="O26">
+        <v>0.1268295369894346</v>
+      </c>
+      <c r="P26">
+        <v>0.1273153389846331</v>
+      </c>
+      <c r="Q26">
+        <v>26.20207995201011</v>
+      </c>
+      <c r="R26">
+        <v>235.818719568091</v>
+      </c>
+      <c r="S26">
+        <v>0.01970594591632956</v>
+      </c>
+      <c r="T26">
+        <v>0.02063229286630069</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>13.141961</v>
-      </c>
-      <c r="H25">
-        <v>39.425883</v>
-      </c>
-      <c r="I25">
-        <v>0.01812474125112182</v>
-      </c>
-      <c r="J25">
-        <v>0.01886409086647383</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.051054333333333</v>
-      </c>
-      <c r="N25">
-        <v>3.153163</v>
-      </c>
-      <c r="O25">
-        <v>0.7555825268891283</v>
-      </c>
-      <c r="P25">
-        <v>0.7555825268891282</v>
-      </c>
-      <c r="Q25">
-        <v>13.81291505754767</v>
-      </c>
-      <c r="R25">
-        <v>124.316235517929</v>
-      </c>
-      <c r="S25">
-        <v>0.01369473779373425</v>
-      </c>
-      <c r="T25">
-        <v>0.01425337744435642</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>59.584107</v>
+      </c>
+      <c r="H27">
+        <v>178.752321</v>
+      </c>
+      <c r="I27">
+        <v>0.06264211346331491</v>
+      </c>
+      <c r="J27">
+        <v>0.06533656307588157</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.5</v>
+      </c>
+      <c r="M27">
+        <v>0.016002</v>
+      </c>
+      <c r="N27">
+        <v>0.032004</v>
+      </c>
+      <c r="O27">
+        <v>0.01144721443008105</v>
+      </c>
+      <c r="P27">
+        <v>0.007660707540688833</v>
+      </c>
+      <c r="Q27">
+        <v>0.9534648802139999</v>
+      </c>
+      <c r="R27">
+        <v>5.720789281284</v>
+      </c>
+      <c r="S27">
+        <v>0.0007170777051680328</v>
+      </c>
+      <c r="T27">
+        <v>0.0005005243014380975</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>59.584107</v>
+      </c>
+      <c r="H28">
+        <v>178.752321</v>
+      </c>
+      <c r="I28">
+        <v>0.06264211346331491</v>
+      </c>
+      <c r="J28">
+        <v>0.06533656307588157</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.00723</v>
+      </c>
+      <c r="N28">
+        <v>0.02169</v>
+      </c>
+      <c r="O28">
+        <v>0.005172063512653793</v>
+      </c>
+      <c r="P28">
+        <v>0.005191874345629947</v>
+      </c>
+      <c r="Q28">
+        <v>0.43079309361</v>
+      </c>
+      <c r="R28">
+        <v>3.87713784249</v>
+      </c>
+      <c r="S28">
+        <v>0.00032398898939913</v>
+      </c>
+      <c r="T28">
+        <v>0.0003392192256653023</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>59.584107</v>
+      </c>
+      <c r="H29">
+        <v>178.752321</v>
+      </c>
+      <c r="I29">
+        <v>0.06264211346331491</v>
+      </c>
+      <c r="J29">
+        <v>0.06533656307588157</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.5439379999999999</v>
+      </c>
+      <c r="N29">
+        <v>1.631814</v>
+      </c>
+      <c r="O29">
+        <v>0.3891122936301353</v>
+      </c>
+      <c r="P29">
+        <v>0.3906027313711288</v>
+      </c>
+      <c r="Q29">
+        <v>32.41005999336599</v>
+      </c>
+      <c r="R29">
+        <v>291.6905399402939</v>
+      </c>
+      <c r="S29">
+        <v>0.02437481644754964</v>
+      </c>
+      <c r="T29">
+        <v>0.02552063999584138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>59.584107</v>
+      </c>
+      <c r="H30">
+        <v>178.752321</v>
+      </c>
+      <c r="I30">
+        <v>0.06264211346331491</v>
+      </c>
+      <c r="J30">
+        <v>0.06533656307588157</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.6534303333333332</v>
+      </c>
+      <c r="N30">
+        <v>1.960291</v>
+      </c>
+      <c r="O30">
+        <v>0.4674388914376954</v>
+      </c>
+      <c r="P30">
+        <v>0.4692293477579194</v>
+      </c>
+      <c r="Q30">
+        <v>38.93406289837899</v>
+      </c>
+      <c r="R30">
+        <v>350.4065660854109</v>
+      </c>
+      <c r="S30">
+        <v>0.02928136007460626</v>
+      </c>
+      <c r="T30">
+        <v>0.03065783287684007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>59.584107</v>
+      </c>
+      <c r="H31">
+        <v>178.752321</v>
+      </c>
+      <c r="I31">
+        <v>0.06264211346331491</v>
+      </c>
+      <c r="J31">
+        <v>0.06533656307588157</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.1772943333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.531883</v>
+      </c>
+      <c r="O31">
+        <v>0.1268295369894346</v>
+      </c>
+      <c r="P31">
+        <v>0.1273153389846331</v>
+      </c>
+      <c r="Q31">
+        <v>10.563924527827</v>
+      </c>
+      <c r="R31">
+        <v>95.075320750443</v>
+      </c>
+      <c r="S31">
+        <v>0.007944870246591858</v>
+      </c>
+      <c r="T31">
+        <v>0.008318346676096726</v>
       </c>
     </row>
   </sheetData>
